--- a/data.xlsx
+++ b/data.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Perso\Developpement\Programmes\Programmes\Python\travelling_salesman_problem_lp\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76DCCE9A-7534-42E5-B61F-41F313096E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="4116" yWindow="1836" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Feuille 1" sheetId="1" r:id="rId4"/>
+    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -67,22 +76,22 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Inherit"/>
     </font>
     <font>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Inherit"/>
     </font>
@@ -92,11 +101,17 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -104,44 +119,44 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -331,20 +346,23 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A3:R20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="3">
+    <row r="3" spans="1:18" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -398,959 +416,959 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:18">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C4" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D4" s="4">
-        <v>657.0</v>
+        <v>657</v>
       </c>
       <c r="E4" s="4">
-        <v>2326.0</v>
+        <v>2326</v>
       </c>
       <c r="F4" s="4">
-        <v>464.0</v>
+        <v>464</v>
       </c>
       <c r="G4" s="4">
-        <v>2724.0</v>
+        <v>2724</v>
       </c>
       <c r="H4" s="4">
-        <v>1375.0</v>
+        <v>1375</v>
       </c>
       <c r="I4" s="4">
-        <v>713.0</v>
+        <v>713</v>
       </c>
       <c r="J4" s="4">
-        <v>598.0</v>
+        <v>598</v>
       </c>
       <c r="K4" s="4">
-        <v>67.0</v>
+        <v>67</v>
       </c>
       <c r="L4" s="4">
-        <v>705.0</v>
+        <v>705</v>
       </c>
       <c r="M4" s="4">
-        <v>442.0</v>
+        <v>442</v>
       </c>
       <c r="N4" s="4">
-        <v>105.0</v>
+        <v>105</v>
       </c>
       <c r="O4" s="4">
-        <v>1893.0</v>
+        <v>1893</v>
       </c>
       <c r="P4" s="4">
-        <v>1343.0</v>
+        <v>1343</v>
       </c>
       <c r="Q4" s="4">
-        <v>3157.0</v>
+        <v>3157</v>
       </c>
       <c r="R4" s="4">
-        <v>2067.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C5" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D5" s="5">
-        <v>654.0</v>
+        <v>654</v>
       </c>
       <c r="E5" s="5">
-        <v>2326.0</v>
+        <v>2326</v>
       </c>
       <c r="F5" s="5">
-        <v>467.0</v>
+        <v>467</v>
       </c>
       <c r="G5" s="5">
-        <v>2721.0</v>
+        <v>2721</v>
       </c>
       <c r="H5" s="5">
-        <v>1376.0</v>
+        <v>1376</v>
       </c>
       <c r="I5" s="5">
-        <v>716.0</v>
+        <v>716</v>
       </c>
       <c r="J5" s="5">
-        <v>599.0</v>
+        <v>599</v>
       </c>
       <c r="K5" s="5">
-        <v>64.0</v>
+        <v>64</v>
       </c>
       <c r="L5" s="5">
-        <v>708.0</v>
+        <v>708</v>
       </c>
       <c r="M5" s="5">
-        <v>443.0</v>
+        <v>443</v>
       </c>
       <c r="N5" s="5">
-        <v>102.0</v>
+        <v>102</v>
       </c>
       <c r="O5" s="5">
-        <v>1891.0</v>
+        <v>1891</v>
       </c>
       <c r="P5" s="5">
-        <v>1345.0</v>
+        <v>1345</v>
       </c>
       <c r="Q5" s="5">
-        <v>3156.0</v>
+        <v>3156</v>
       </c>
       <c r="R5" s="5">
-        <v>2067.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="5">
-        <v>657.0</v>
+        <v>657</v>
       </c>
       <c r="C6" s="5">
-        <v>654.0</v>
+        <v>654</v>
       </c>
       <c r="D6" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E6" s="5">
-        <v>2124.0</v>
+        <v>2124</v>
       </c>
       <c r="F6" s="5">
-        <v>960.0</v>
+        <v>960</v>
       </c>
       <c r="G6" s="5">
-        <v>2130.0</v>
+        <v>2130</v>
       </c>
       <c r="H6" s="5">
-        <v>1602.0</v>
+        <v>1602</v>
       </c>
       <c r="I6" s="5">
-        <v>1165.0</v>
+        <v>1165</v>
       </c>
       <c r="J6" s="5">
-        <v>1166.0</v>
+        <v>1166</v>
       </c>
       <c r="K6" s="5">
-        <v>629.0</v>
+        <v>629</v>
       </c>
       <c r="L6" s="5">
-        <v>1151.0</v>
+        <v>1151</v>
       </c>
       <c r="M6" s="5">
-        <v>1040.0</v>
+        <v>1040</v>
       </c>
       <c r="N6" s="5">
-        <v>555.0</v>
+        <v>555</v>
       </c>
       <c r="O6" s="5">
-        <v>1329.0</v>
+        <v>1329</v>
       </c>
       <c r="P6" s="5">
-        <v>1597.0</v>
+        <v>1597</v>
       </c>
       <c r="Q6" s="5">
-        <v>2624.0</v>
+        <v>2624</v>
       </c>
       <c r="R6" s="5">
-        <v>1912.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="5">
-        <v>2326.0</v>
+        <v>2326</v>
       </c>
       <c r="C7" s="5">
-        <v>2326.0</v>
+        <v>2326</v>
       </c>
       <c r="D7" s="5">
-        <v>2124.0</v>
+        <v>2124</v>
       </c>
       <c r="E7" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F7" s="5">
-        <v>2074.0</v>
+        <v>2074</v>
       </c>
       <c r="G7" s="5">
-        <v>3439.0</v>
+        <v>3439</v>
       </c>
       <c r="H7" s="5">
-        <v>1393.0</v>
+        <v>1393</v>
       </c>
       <c r="I7" s="5">
-        <v>1965.0</v>
+        <v>1965</v>
       </c>
       <c r="J7" s="5">
-        <v>2892.0</v>
+        <v>2892</v>
       </c>
       <c r="K7" s="5">
-        <v>2366.0</v>
+        <v>2366</v>
       </c>
       <c r="L7" s="5">
-        <v>1956.0</v>
+        <v>1956</v>
       </c>
       <c r="M7" s="5">
-        <v>2729.0</v>
+        <v>2729</v>
       </c>
       <c r="N7" s="5">
-        <v>2301.0</v>
+        <v>2301</v>
       </c>
       <c r="O7" s="5">
-        <v>1450.0</v>
+        <v>1450</v>
       </c>
       <c r="P7" s="5">
-        <v>1459.0</v>
+        <v>1459</v>
       </c>
       <c r="Q7" s="5">
-        <v>1678.0</v>
+        <v>1678</v>
       </c>
       <c r="R7" s="5">
-        <v>285.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="5">
-        <v>464.0</v>
+        <v>464</v>
       </c>
       <c r="C8" s="5">
-        <v>467.0</v>
+        <v>467</v>
       </c>
       <c r="D8" s="5">
-        <v>960.0</v>
+        <v>960</v>
       </c>
       <c r="E8" s="5">
-        <v>2074.0</v>
+        <v>2074</v>
       </c>
       <c r="F8" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G8" s="5">
-        <v>3090.0</v>
+        <v>3090</v>
       </c>
       <c r="H8" s="5">
-        <v>947.0</v>
+        <v>947</v>
       </c>
       <c r="I8" s="5">
-        <v>249.0</v>
+        <v>249</v>
       </c>
       <c r="J8" s="5">
-        <v>855.0</v>
+        <v>855</v>
       </c>
       <c r="K8" s="5">
-        <v>531.0</v>
+        <v>531</v>
       </c>
       <c r="L8" s="5">
-        <v>242.0</v>
+        <v>242</v>
       </c>
       <c r="M8" s="5">
-        <v>702.0</v>
+        <v>702</v>
       </c>
       <c r="N8" s="5">
-        <v>534.0</v>
+        <v>534</v>
       </c>
       <c r="O8" s="5">
-        <v>1959.0</v>
+        <v>1959</v>
       </c>
       <c r="P8" s="5">
-        <v>907.0</v>
+        <v>907</v>
       </c>
       <c r="Q8" s="5">
-        <v>3144.0</v>
+        <v>3144</v>
       </c>
       <c r="R8" s="5">
-        <v>1797.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="5">
-        <v>2724.0</v>
+        <v>2724</v>
       </c>
       <c r="C9" s="5">
-        <v>2721.0</v>
+        <v>2721</v>
       </c>
       <c r="D9" s="5">
-        <v>2130.0</v>
+        <v>2130</v>
       </c>
       <c r="E9" s="5">
-        <v>3439.0</v>
+        <v>3439</v>
       </c>
       <c r="F9" s="5">
-        <v>3090.0</v>
+        <v>3090</v>
       </c>
       <c r="G9" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H9" s="5">
-        <v>3608.0</v>
+        <v>3608</v>
       </c>
       <c r="I9" s="5">
-        <v>3293.0</v>
+        <v>3293</v>
       </c>
       <c r="J9" s="5">
-        <v>3015.0</v>
+        <v>3015</v>
       </c>
       <c r="K9" s="5">
-        <v>2673.0</v>
+        <v>2673</v>
       </c>
       <c r="L9" s="5">
-        <v>3279.0</v>
+        <v>3279</v>
       </c>
       <c r="M9" s="5">
-        <v>2963.0</v>
+        <v>2963</v>
       </c>
       <c r="N9" s="5">
-        <v>2621.0</v>
+        <v>2621</v>
       </c>
       <c r="O9" s="5">
-        <v>1990.0</v>
+        <v>1990</v>
       </c>
       <c r="P9" s="5">
-        <v>3623.0</v>
+        <v>3623</v>
       </c>
       <c r="Q9" s="5">
-        <v>2663.0</v>
+        <v>2663</v>
       </c>
       <c r="R9" s="5">
-        <v>3384.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>3384</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="5">
-        <v>1375.0</v>
+        <v>1375</v>
       </c>
       <c r="C10" s="5">
-        <v>1376.0</v>
+        <v>1376</v>
       </c>
       <c r="D10" s="5">
-        <v>1602.0</v>
+        <v>1602</v>
       </c>
       <c r="E10" s="5">
-        <v>1393.0</v>
+        <v>1393</v>
       </c>
       <c r="F10" s="5">
-        <v>947.0</v>
+        <v>947</v>
       </c>
       <c r="G10" s="5">
-        <v>3608.0</v>
+        <v>3608</v>
       </c>
       <c r="H10" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I10" s="5">
-        <v>734.0</v>
+        <v>734</v>
       </c>
       <c r="J10" s="5">
-        <v>1788.0</v>
+        <v>1788</v>
       </c>
       <c r="K10" s="5">
-        <v>1438.0</v>
+        <v>1438</v>
       </c>
       <c r="L10" s="5">
-        <v>732.0</v>
+        <v>732</v>
       </c>
       <c r="M10" s="5">
-        <v>1642.0</v>
+        <v>1642</v>
       </c>
       <c r="N10" s="5">
-        <v>1411.0</v>
+        <v>1411</v>
       </c>
       <c r="O10" s="5">
-        <v>1967.0</v>
+        <v>1967</v>
       </c>
       <c r="P10" s="5">
-        <v>66.0</v>
+        <v>66</v>
       </c>
       <c r="Q10" s="5">
-        <v>2854.0</v>
+        <v>2854</v>
       </c>
       <c r="R10" s="5">
-        <v>1114.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="5">
-        <v>713.0</v>
+        <v>713</v>
       </c>
       <c r="C11" s="5">
-        <v>716.0</v>
+        <v>716</v>
       </c>
       <c r="D11" s="5">
-        <v>1165.0</v>
+        <v>1165</v>
       </c>
       <c r="E11" s="5">
-        <v>1965.0</v>
+        <v>1965</v>
       </c>
       <c r="F11" s="5">
-        <v>249.0</v>
+        <v>249</v>
       </c>
       <c r="G11" s="5">
-        <v>3293.0</v>
+        <v>3293</v>
       </c>
       <c r="H11" s="5">
-        <v>734.0</v>
+        <v>734</v>
       </c>
       <c r="I11" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J11" s="5">
-        <v>1055.0</v>
+        <v>1055</v>
       </c>
       <c r="K11" s="5">
-        <v>780.0</v>
+        <v>780</v>
       </c>
       <c r="L11" s="5">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="M11" s="5">
-        <v>913.0</v>
+        <v>913</v>
       </c>
       <c r="N11" s="5">
-        <v>781.0</v>
+        <v>781</v>
       </c>
       <c r="O11" s="5">
-        <v>2032.0</v>
+        <v>2032</v>
       </c>
       <c r="P11" s="5">
-        <v>686.0</v>
+        <v>686</v>
       </c>
       <c r="Q11" s="5">
-        <v>3158.0</v>
+        <v>3158</v>
       </c>
       <c r="R11" s="5">
-        <v>1682.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="5">
-        <v>598.0</v>
+        <v>598</v>
       </c>
       <c r="C12" s="5">
-        <v>599.0</v>
+        <v>599</v>
       </c>
       <c r="D12" s="5">
-        <v>1166.0</v>
+        <v>1166</v>
       </c>
       <c r="E12" s="5">
-        <v>2892.0</v>
+        <v>2892</v>
       </c>
       <c r="F12" s="5">
-        <v>855.0</v>
+        <v>855</v>
       </c>
       <c r="G12" s="5">
-        <v>3015.0</v>
+        <v>3015</v>
       </c>
       <c r="H12" s="5">
-        <v>1788.0</v>
+        <v>1788</v>
       </c>
       <c r="I12" s="5">
-        <v>1055.0</v>
+        <v>1055</v>
       </c>
       <c r="J12" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K12" s="5">
-        <v>584.0</v>
+        <v>584</v>
       </c>
       <c r="L12" s="5">
-        <v>1056.0</v>
+        <v>1056</v>
       </c>
       <c r="M12" s="5">
-        <v>163.0</v>
+        <v>163</v>
       </c>
       <c r="N12" s="5">
-        <v>665.0</v>
+        <v>665</v>
       </c>
       <c r="O12" s="5">
-        <v>2469.0</v>
+        <v>2469</v>
       </c>
       <c r="P12" s="5">
-        <v>1741.0</v>
+        <v>1741</v>
       </c>
       <c r="Q12" s="5">
-        <v>3746.0</v>
+        <v>3746</v>
       </c>
       <c r="R12" s="5">
-        <v>2623.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>2623</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="5">
-        <v>67.0</v>
+        <v>67</v>
       </c>
       <c r="C13" s="5">
-        <v>64.0</v>
+        <v>64</v>
       </c>
       <c r="D13" s="5">
-        <v>629.0</v>
+        <v>629</v>
       </c>
       <c r="E13" s="5">
-        <v>2366.0</v>
+        <v>2366</v>
       </c>
       <c r="F13" s="5">
-        <v>531.0</v>
+        <v>531</v>
       </c>
       <c r="G13" s="5">
-        <v>2673.0</v>
+        <v>2673</v>
       </c>
       <c r="H13" s="5">
-        <v>1438.0</v>
+        <v>1438</v>
       </c>
       <c r="I13" s="5">
-        <v>780.0</v>
+        <v>780</v>
       </c>
       <c r="J13" s="5">
-        <v>584.0</v>
+        <v>584</v>
       </c>
       <c r="K13" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L13" s="5">
-        <v>772.0</v>
+        <v>772</v>
       </c>
       <c r="M13" s="5">
-        <v>435.0</v>
+        <v>435</v>
       </c>
       <c r="N13" s="5">
-        <v>82.0</v>
+        <v>82</v>
       </c>
       <c r="O13" s="5">
-        <v>1891.0</v>
+        <v>1891</v>
       </c>
       <c r="P13" s="5">
-        <v>1407.0</v>
+        <v>1407</v>
       </c>
       <c r="Q13" s="5">
-        <v>3163.0</v>
+        <v>3163</v>
       </c>
       <c r="R13" s="5">
-        <v>2110.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="5">
-        <v>705.0</v>
+        <v>705</v>
       </c>
       <c r="C14" s="5">
-        <v>708.0</v>
+        <v>708</v>
       </c>
       <c r="D14" s="5">
-        <v>1151.0</v>
+        <v>1151</v>
       </c>
       <c r="E14" s="5">
-        <v>1956.0</v>
+        <v>1956</v>
       </c>
       <c r="F14" s="5">
-        <v>242.0</v>
+        <v>242</v>
       </c>
       <c r="G14" s="5">
-        <v>3279.0</v>
+        <v>3279</v>
       </c>
       <c r="H14" s="5">
-        <v>732.0</v>
+        <v>732</v>
       </c>
       <c r="I14" s="5">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="J14" s="5">
-        <v>1056.0</v>
+        <v>1056</v>
       </c>
       <c r="K14" s="5">
-        <v>772.0</v>
+        <v>772</v>
       </c>
       <c r="L14" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M14" s="5">
-        <v>912.0</v>
+        <v>912</v>
       </c>
       <c r="N14" s="5">
-        <v>771.0</v>
+        <v>771</v>
       </c>
       <c r="O14" s="5">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="P14" s="5">
-        <v>686.0</v>
+        <v>686</v>
       </c>
       <c r="Q14" s="5">
-        <v>3144.0</v>
+        <v>3144</v>
       </c>
       <c r="R14" s="5">
-        <v>1673.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="5">
-        <v>442.0</v>
+        <v>442</v>
       </c>
       <c r="C15" s="5">
-        <v>443.0</v>
+        <v>443</v>
       </c>
       <c r="D15" s="5">
-        <v>1040.0</v>
+        <v>1040</v>
       </c>
       <c r="E15" s="5">
-        <v>2729.0</v>
+        <v>2729</v>
       </c>
       <c r="F15" s="5">
-        <v>702.0</v>
+        <v>702</v>
       </c>
       <c r="G15" s="5">
-        <v>2963.0</v>
+        <v>2963</v>
       </c>
       <c r="H15" s="5">
-        <v>1642.0</v>
+        <v>1642</v>
       </c>
       <c r="I15" s="5">
-        <v>913.0</v>
+        <v>913</v>
       </c>
       <c r="J15" s="5">
-        <v>163.0</v>
+        <v>163</v>
       </c>
       <c r="K15" s="5">
-        <v>435.0</v>
+        <v>435</v>
       </c>
       <c r="L15" s="5">
-        <v>912.0</v>
+        <v>912</v>
       </c>
       <c r="M15" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N15" s="5">
-        <v>517.0</v>
+        <v>517</v>
       </c>
       <c r="O15" s="5">
-        <v>2326.0</v>
+        <v>2326</v>
       </c>
       <c r="P15" s="5">
-        <v>1598.0</v>
+        <v>1598</v>
       </c>
       <c r="Q15" s="5">
-        <v>3597.0</v>
+        <v>3597</v>
       </c>
       <c r="R15" s="5">
-        <v>2461.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>2461</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="5">
-        <v>105.0</v>
+        <v>105</v>
       </c>
       <c r="C16" s="5">
-        <v>102.0</v>
+        <v>102</v>
       </c>
       <c r="D16" s="5">
-        <v>555.0</v>
+        <v>555</v>
       </c>
       <c r="E16" s="5">
-        <v>2301.0</v>
+        <v>2301</v>
       </c>
       <c r="F16" s="5">
-        <v>534.0</v>
+        <v>534</v>
       </c>
       <c r="G16" s="5">
-        <v>2621.0</v>
+        <v>2621</v>
       </c>
       <c r="H16" s="5">
-        <v>1411.0</v>
+        <v>1411</v>
       </c>
       <c r="I16" s="5">
-        <v>781.0</v>
+        <v>781</v>
       </c>
       <c r="J16" s="5">
-        <v>665.0</v>
+        <v>665</v>
       </c>
       <c r="K16" s="5">
-        <v>82.0</v>
+        <v>82</v>
       </c>
       <c r="L16" s="5">
-        <v>771.0</v>
+        <v>771</v>
       </c>
       <c r="M16" s="5">
-        <v>517.0</v>
+        <v>517</v>
       </c>
       <c r="N16" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O16" s="5">
-        <v>1809.0</v>
+        <v>1809</v>
       </c>
       <c r="P16" s="5">
-        <v>1384.0</v>
+        <v>1384</v>
       </c>
       <c r="Q16" s="5">
-        <v>3081.0</v>
+        <v>3081</v>
       </c>
       <c r="R16" s="5">
-        <v>2048.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="5">
-        <v>1893.0</v>
+        <v>1893</v>
       </c>
       <c r="C17" s="5">
-        <v>1891.0</v>
+        <v>1891</v>
       </c>
       <c r="D17" s="5">
-        <v>1329.0</v>
+        <v>1329</v>
       </c>
       <c r="E17" s="5">
-        <v>1450.0</v>
+        <v>1450</v>
       </c>
       <c r="F17" s="5">
-        <v>1959.0</v>
+        <v>1959</v>
       </c>
       <c r="G17" s="5">
-        <v>1990.0</v>
+        <v>1990</v>
       </c>
       <c r="H17" s="5">
-        <v>1967.0</v>
+        <v>1967</v>
       </c>
       <c r="I17" s="5">
-        <v>2032.0</v>
+        <v>2032</v>
       </c>
       <c r="J17" s="5">
-        <v>2469.0</v>
+        <v>2469</v>
       </c>
       <c r="K17" s="5">
-        <v>1891.0</v>
+        <v>1891</v>
       </c>
       <c r="L17" s="5">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="M17" s="5">
-        <v>2326.0</v>
+        <v>2326</v>
       </c>
       <c r="N17" s="5">
-        <v>1809.0</v>
+        <v>1809</v>
       </c>
       <c r="O17" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P17" s="5">
-        <v>2008.0</v>
+        <v>2008</v>
       </c>
       <c r="Q17" s="5">
-        <v>1298.0</v>
+        <v>1298</v>
       </c>
       <c r="R17" s="5">
-        <v>1418.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="5">
-        <v>1343.0</v>
+        <v>1343</v>
       </c>
       <c r="C18" s="5">
-        <v>1345.0</v>
+        <v>1345</v>
       </c>
       <c r="D18" s="5">
-        <v>1597.0</v>
+        <v>1597</v>
       </c>
       <c r="E18" s="5">
-        <v>1459.0</v>
+        <v>1459</v>
       </c>
       <c r="F18" s="5">
-        <v>907.0</v>
+        <v>907</v>
       </c>
       <c r="G18" s="5">
-        <v>3623.0</v>
+        <v>3623</v>
       </c>
       <c r="H18" s="5">
-        <v>66.0</v>
+        <v>66</v>
       </c>
       <c r="I18" s="5">
-        <v>686.0</v>
+        <v>686</v>
       </c>
       <c r="J18" s="5">
-        <v>1741.0</v>
+        <v>1741</v>
       </c>
       <c r="K18" s="5">
-        <v>1407.0</v>
+        <v>1407</v>
       </c>
       <c r="L18" s="5">
-        <v>686.0</v>
+        <v>686</v>
       </c>
       <c r="M18" s="5">
-        <v>1598.0</v>
+        <v>1598</v>
       </c>
       <c r="N18" s="5">
-        <v>1384.0</v>
+        <v>1384</v>
       </c>
       <c r="O18" s="5">
-        <v>2008.0</v>
+        <v>2008</v>
       </c>
       <c r="P18" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="5">
-        <v>2912.0</v>
+        <v>2912</v>
       </c>
       <c r="R18" s="5">
-        <v>1180.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="5">
-        <v>3157.0</v>
+        <v>3157</v>
       </c>
       <c r="C19" s="5">
-        <v>3156.0</v>
+        <v>3156</v>
       </c>
       <c r="D19" s="5">
-        <v>2624.0</v>
+        <v>2624</v>
       </c>
       <c r="E19" s="5">
-        <v>1678.0</v>
+        <v>1678</v>
       </c>
       <c r="F19" s="5">
-        <v>3144.0</v>
+        <v>3144</v>
       </c>
       <c r="G19" s="5">
-        <v>2663.0</v>
+        <v>2663</v>
       </c>
       <c r="H19" s="5">
-        <v>2854.0</v>
+        <v>2854</v>
       </c>
       <c r="I19" s="5">
-        <v>3158.0</v>
+        <v>3158</v>
       </c>
       <c r="J19" s="5">
-        <v>3746.0</v>
+        <v>3746</v>
       </c>
       <c r="K19" s="5">
-        <v>3163.0</v>
+        <v>3163</v>
       </c>
       <c r="L19" s="5">
-        <v>3144.0</v>
+        <v>3144</v>
       </c>
       <c r="M19" s="5">
-        <v>3597.0</v>
+        <v>3597</v>
       </c>
       <c r="N19" s="5">
-        <v>3081.0</v>
+        <v>3081</v>
       </c>
       <c r="O19" s="5">
-        <v>1298.0</v>
+        <v>1298</v>
       </c>
       <c r="P19" s="5">
-        <v>2912.0</v>
+        <v>2912</v>
       </c>
       <c r="Q19" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R19" s="5">
-        <v>1862.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="5">
-        <v>2067.0</v>
+        <v>2067</v>
       </c>
       <c r="C20" s="5">
-        <v>2067.0</v>
+        <v>2067</v>
       </c>
       <c r="D20" s="5">
-        <v>1912.0</v>
+        <v>1912</v>
       </c>
       <c r="E20" s="5">
-        <v>285.0</v>
+        <v>285</v>
       </c>
       <c r="F20" s="5">
-        <v>1797.0</v>
+        <v>1797</v>
       </c>
       <c r="G20" s="5">
-        <v>3384.0</v>
+        <v>3384</v>
       </c>
       <c r="H20" s="5">
-        <v>1114.0</v>
+        <v>1114</v>
       </c>
       <c r="I20" s="5">
-        <v>1682.0</v>
+        <v>1682</v>
       </c>
       <c r="J20" s="5">
-        <v>2623.0</v>
+        <v>2623</v>
       </c>
       <c r="K20" s="5">
-        <v>2110.0</v>
+        <v>2110</v>
       </c>
       <c r="L20" s="5">
-        <v>1673.0</v>
+        <v>1673</v>
       </c>
       <c r="M20" s="5">
-        <v>2461.0</v>
+        <v>2461</v>
       </c>
       <c r="N20" s="5">
-        <v>2048.0</v>
+        <v>2048</v>
       </c>
       <c r="O20" s="5">
-        <v>1418.0</v>
+        <v>1418</v>
       </c>
       <c r="P20" s="5">
-        <v>1180.0</v>
+        <v>1180</v>
       </c>
       <c r="Q20" s="5">
-        <v>1862.0</v>
+        <v>1862</v>
       </c>
       <c r="R20" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>